--- a/Stories/Plague.xlsx
+++ b/Stories/Plague.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D9E116-5426-4722-96A4-C355E75D5809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A62696-2DBD-4E9C-947D-EDAE75FE7DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CE1B816-6738-4CE3-8230-2ECE19A44E6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CE1B816-6738-4CE3-8230-2ECE19A44E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="102">
   <si>
     <t>MILITARY</t>
   </si>
@@ -309,6 +309,36 @@
   </si>
   <si>
     <t>TAVERN</t>
+  </si>
+  <si>
+    <t>EVENT SUMMARY HEADER</t>
+  </si>
+  <si>
+    <t>ACTION 1 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 2 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 3 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>ACTION 4 EVENT SUMMARY</t>
+  </si>
+  <si>
+    <t>Thankfully, the strict border restrictions meant that you were able to control the flow of people entering your Kingdom, minimising any risk of any potential foreign infection. The stock on the medicine also meant that your Kingdom is able to cope should an outbreak occur.</t>
+  </si>
+  <si>
+    <t>Although this had helped to reduce the number of infected people, such actions were viewed to be treacherous by the neighbouring Kingdoms, ultimately angering them.</t>
+  </si>
+  <si>
+    <t>The decision to cut off interactions with neighbouring Kingdoms meant that you removed the risk of any infected people from the neighbouring Kingdoms entering your own. However, this came a cost of your Kingdom's trade and relationship ties with the neighbouring Kingdoms.</t>
+  </si>
+  <si>
+    <t>You have received news that the disease has sweeped through the neighbouring kingdoms and situation has gotten severe.</t>
+  </si>
+  <si>
+    <t>Letting your guard down was not the best as you unknowningly let infected people from the neighbouring Kingdoms enter your own and allowed for spreading of the disease.</t>
   </si>
 </sst>
 </file>
@@ -462,52 +492,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -824,425 +854,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA58C0E2-7DF5-496F-9DA8-441177FE0A8D}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="b">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="270.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" ht="262.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="228" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="171" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="256.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="8" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="15" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B9:M9"/>
+  <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B1:C1"/>
@@ -1251,6 +1376,11 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/Plague.xlsx
+++ b/Stories/Plague.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A62696-2DBD-4E9C-947D-EDAE75FE7DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CE1B816-6738-4CE3-8230-2ECE19A44E6E}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,66 +83,33 @@
     <t>Upfront</t>
   </si>
   <si>
-    <t>Neighbouring countries have reported a new disease that is making its townfolk sick.</t>
-  </si>
-  <si>
-    <t>Urgent news by raven was received earlier today by our herald spying in the Kingdom three days over of a disease that  they have never seen before. This comes just a day after report from another Kingdom four days over of the same mysterious symptoms. At this time there have been no reports of a cure.</t>
-  </si>
-  <si>
     <t>ADVISOR OPINION</t>
   </si>
   <si>
-    <t>The previous general warned that any news of disease can be detrimental to a kingdoms military forces and should be taken seriously.</t>
-  </si>
-  <si>
     <t>If we're lucky the sickness will wipe our enemies and allow us to increase our lands.</t>
   </si>
   <si>
     <t>I haven't seen any proof this disease exists, and I think we have the best scientists.</t>
   </si>
   <si>
-    <t>The spymasters in other Kingdoms have seen the damage firsthand and we must act quickly</t>
-  </si>
-  <si>
     <t>Based on the crop yield, the kingdom needs all its farmers working if we are to get through the winter.</t>
   </si>
   <si>
     <t>I don’t have time for rumours.</t>
   </si>
   <si>
-    <t>The Kingdom should reserved all its liquidity assets to prepare for the worst.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The people may have a tough time ahead doing trading if the neighbouring Kingdoms are closing their border. </t>
   </si>
   <si>
     <t>There is not much information regarding to this disease. I need more time to investigate into it.</t>
   </si>
   <si>
-    <t>We could dispatch our scientists disguising as a medical team to better assess the disease closer. in the affected Kingdoms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This could be a great opportunity to expand our alliied Kingdoms and influences over other Kingdoms. </t>
-  </si>
-  <si>
-    <t>I believe this could be a time that the neighbouring Kingdoms would request for our aid.</t>
-  </si>
-  <si>
     <t>OUTCOME</t>
   </si>
   <si>
-    <t>You investigate further and it is true. You have caught it early and have managed to keep it out of your kingdom... for now.</t>
-  </si>
-  <si>
     <t>ACTION 1</t>
   </si>
   <si>
-    <t>Enact strict border restrictions and increase the availability of medicine</t>
-  </si>
-  <si>
-    <t>It will be a difficult but reports from other kingdoms taking this approach show we can minimize the damage</t>
-  </si>
-  <si>
     <t>The troops are ready to defend us.</t>
   </si>
   <si>
@@ -158,36 +119,18 @@
     <t>We must work on a cure at once and shut ourselves off completely if we are to remain safe.</t>
   </si>
   <si>
-    <t>This sounds like taxes will be raised quite a bit</t>
-  </si>
-  <si>
     <t>The villagers surveyed said their priority is to keep the crops healthy and family safe</t>
   </si>
   <si>
     <t xml:space="preserve">The Kingdom could earn a great fortune if we distribute the medicine to the neighbouring Kingdoms. </t>
   </si>
   <si>
-    <t>The Kingdom should subside the price of the medicine to avoid panic buying.</t>
-  </si>
-  <si>
-    <t>We could approach the Cathay region to see if there is any leads to this disease.</t>
-  </si>
-  <si>
     <t>We may not have sufficient raw materials and ingredients for producing the medicine.</t>
   </si>
   <si>
-    <t>The people of the neighbouring countries may seek asylum in our Kingdom.</t>
-  </si>
-  <si>
-    <t>We may need to assist our allied Kingdoms based on the treaty agreements.</t>
-  </si>
-  <si>
     <t>ACTION 2</t>
   </si>
   <si>
-    <t>Purge sick villagers in the neighboring kindgoms</t>
-  </si>
-  <si>
     <t>Foreign military forces will not be pleased...</t>
   </si>
   <si>
@@ -212,33 +155,18 @@
     <t>I have no rights over people's lives.</t>
   </si>
   <si>
-    <t>This could be a trap to frame our Kingdom as a murderer.</t>
-  </si>
-  <si>
     <t>If we do that, what makes us any different from a murderer?</t>
   </si>
   <si>
-    <t>What if the neighbouring Kingdoms know that we are publicly executing their people?</t>
-  </si>
-  <si>
     <t>How many do we have to kill to stop the spread of the disease? 10? 100?</t>
   </si>
   <si>
     <t>ACTION 3</t>
   </si>
   <si>
-    <t>Cut off all interaction with other kingdoms</t>
-  </si>
-  <si>
-    <t>The other Kingdoms will not be a risk for attack if they are suffering but we will need to keep the soldiers busy</t>
-  </si>
-  <si>
     <t>What are my orders for any intruders? Cut off their heads?</t>
   </si>
   <si>
-    <t>Calculations show this will greatly reduce our commerce and export value. We rely on other Kingdoms for our Kingdom to prosper.</t>
-  </si>
-  <si>
     <t>This is the only safe choice. We are in danger!</t>
   </si>
   <si>
@@ -248,66 +176,24 @@
     <t>I will miss my weekly meeting with the Agricultural society.</t>
   </si>
   <si>
-    <t xml:space="preserve">This may leads to economic sanctions that weakens our financial power.  </t>
-  </si>
-  <si>
     <t>We may suffer trading losses by closing our ports.</t>
   </si>
   <si>
     <t>We should propose a plan to tackle such situation before making rash decision.</t>
   </si>
   <si>
-    <t>We may be isolated by other Kingdoms in the future for being a coward.</t>
-  </si>
-  <si>
     <t>This means that we are cutting off all the help we can get if we need to request aid in the future.</t>
   </si>
   <si>
-    <t>We would betray the trust of our allied Kingdoms.</t>
-  </si>
-  <si>
     <t>ACTION 4</t>
   </si>
   <si>
-    <t>The worst is over... continue business as usual</t>
-  </si>
-  <si>
-    <t>We can hope for the best but we will leave it to luck</t>
-  </si>
-  <si>
-    <t>We can wait and see how badly the other Kingdoms fare before scouting their lands</t>
-  </si>
-  <si>
-    <t>Generations ago we have had similar stories of large death tolls</t>
-  </si>
-  <si>
-    <t>History shows we will pay the price if we do nothing</t>
-  </si>
-  <si>
-    <t>This is the only way to keep businesses running successfully</t>
-  </si>
-  <si>
-    <t>I am worried that my family will get sick</t>
-  </si>
-  <si>
-    <t>It does not matter if there are no trading acitivities from the neighbouring Kingdoms.</t>
-  </si>
-  <si>
     <t>I am not so sure if business can be continued as usual…</t>
   </si>
   <si>
-    <t>I must assess the neighbouring Kingdoms first before putting our people at risk!</t>
-  </si>
-  <si>
     <t>Most other kingdoms are busy dealing with the current disease.</t>
   </si>
   <si>
-    <t>The King's reputation would be tainted if our people are found to be spreading the diseases in other Kingdoms.</t>
-  </si>
-  <si>
-    <t>The neighbouring Kingdoms may think we are taking lightly of the disease.</t>
-  </si>
-  <si>
     <t>TAVERN</t>
   </si>
   <si>
@@ -326,25 +212,133 @@
     <t>ACTION 4 EVENT SUMMARY</t>
   </si>
   <si>
-    <t>Thankfully, the strict border restrictions meant that you were able to control the flow of people entering your Kingdom, minimising any risk of any potential foreign infection. The stock on the medicine also meant that your Kingdom is able to cope should an outbreak occur.</t>
-  </si>
-  <si>
-    <t>Although this had helped to reduce the number of infected people, such actions were viewed to be treacherous by the neighbouring Kingdoms, ultimately angering them.</t>
-  </si>
-  <si>
-    <t>The decision to cut off interactions with neighbouring Kingdoms meant that you removed the risk of any infected people from the neighbouring Kingdoms entering your own. However, this came a cost of your Kingdom's trade and relationship ties with the neighbouring Kingdoms.</t>
-  </si>
-  <si>
-    <t>You have received news that the disease has sweeped through the neighbouring kingdoms and situation has gotten severe.</t>
-  </si>
-  <si>
-    <t>Letting your guard down was not the best as you unknowningly let infected people from the neighbouring Kingdoms enter your own and allowed for spreading of the disease.</t>
+    <t>Urgent news was received by raven earlier today, by our herald spying in a nearby kingdom, of a disease that has never been seen before. This comes just a day after a report from another neighbouring kingdom of the same mysterious symptoms. At this time there have been no reports of a cure.</t>
+  </si>
+  <si>
+    <t>The previous general warned that any news of disease can be detrimental to our kingdoms military forces and should be taken seriously.</t>
+  </si>
+  <si>
+    <t>The spymasters in other kingdoms have seen the damage firsthand and we must act quickly.</t>
+  </si>
+  <si>
+    <t>The kingdom should reserve all its liquid assets to prepare for the worst.</t>
+  </si>
+  <si>
+    <t>We could dispatch our scientists disguising as a medical team to better assess the disease closer in the affected Kingdoms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This could be a great opportunity to expand our allied kingdoms and influences over other kingdoms. </t>
+  </si>
+  <si>
+    <t>I believe this could be a time that the neighbouring kingdoms would request for our aid.</t>
+  </si>
+  <si>
+    <t>You investigate further and the reports from neighbouring countries are true. The disease spreads rapidly, with a low infection to fatality rate and those most at risk are the elderly.</t>
+  </si>
+  <si>
+    <t>Enact strict border restrictions and increase the availability of medicine.</t>
+  </si>
+  <si>
+    <t>It will be a difficult but reports from other kingdoms taking this approach show we can minimize the damage.</t>
+  </si>
+  <si>
+    <t>This will raise taxes quite a bit.</t>
+  </si>
+  <si>
+    <t>The Kingdom should subsidise the price of the medicine to avoid panic buying.</t>
+  </si>
+  <si>
+    <t>We could approach the Cathay region to see if there are any leads to the cure for this disease.</t>
+  </si>
+  <si>
+    <t>The people of the neighbouring countries may seek asylum in our kingdom.</t>
+  </si>
+  <si>
+    <t>We may need to assist our allied kingdoms based on the treaty agreements.</t>
+  </si>
+  <si>
+    <t>Purge sick villagers in the neighbouring kingdoms.</t>
+  </si>
+  <si>
+    <t>This could be a trap to frame our kingdom as a murderer.</t>
+  </si>
+  <si>
+    <t>What if the neighbouring kingdoms know that we are publicly executing their people?</t>
+  </si>
+  <si>
+    <t>Cut off all interaction with other kingdoms.</t>
+  </si>
+  <si>
+    <t>The other kingdoms will not be a risk for attack if they are suffering but we will need to keep the soldiers busy</t>
+  </si>
+  <si>
+    <t>Calculations show this will greatly reduce our commerce and export value. We rely on other kingdoms for our kingdom to prosper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This may leads to economic sanctions that weaken our financial power.  </t>
+  </si>
+  <si>
+    <t>We may be isolated by other kingdoms in the future for being a coward.</t>
+  </si>
+  <si>
+    <t>We would betray the trust of our allied kingdoms.</t>
+  </si>
+  <si>
+    <t>Continue business as usual.</t>
+  </si>
+  <si>
+    <t>We can hope for the best but we will leave it to luck.</t>
+  </si>
+  <si>
+    <t>We can wait and see how badly the other kingdoms fare before scouting their lands.</t>
+  </si>
+  <si>
+    <t>Generations ago we have had similar stories of large death tolls.</t>
+  </si>
+  <si>
+    <t>History shows we will pay the price if we do nothing.</t>
+  </si>
+  <si>
+    <t>This is the only way to keep businesses running successfully.</t>
+  </si>
+  <si>
+    <t>I am worried that my family will get sick.</t>
+  </si>
+  <si>
+    <t>It does not matter if there are no trading activities from the neighbouring kingdoms.</t>
+  </si>
+  <si>
+    <t>I must assess the neighbouring kingdoms first before putting our people at risk!</t>
+  </si>
+  <si>
+    <t>The King's reputation would be tainted if our people are found to be spreading the diseases in other kingdoms.</t>
+  </si>
+  <si>
+    <t>The neighbouring kingdoms may think we are taking lightly of the disease.</t>
+  </si>
+  <si>
+    <t>You have received news that the disease has sweeped through all neighbouring kingdoms and the situation has gotten severe.</t>
+  </si>
+  <si>
+    <t>Thankfully, the strict border restrictions meant that you were able to control the flow of people entering your kingdom, minimising any risk of potential foreign infection. The stock on the medicine also meant that your kingdom is able to cope should an outbreak occur.</t>
+  </si>
+  <si>
+    <t>Although this had helped to reduce the number of infected people, such actions were viewed to be treacherous by the neighbouring kingdoms, ultimately angering them.</t>
+  </si>
+  <si>
+    <t>The decision to cut off interactions with neighbouring kingdoms meant that you removed the risk of any infected people from the neighbouring kingdoms entering your own. However, this came at a cost to your kingdom's trade and relationship ties with the neighbouring kingdoms.</t>
+  </si>
+  <si>
+    <t>Letting your guard down was not the best as you unknowningly let infected people from the neighbouring kingdoms enter your own and allowed for spreading of the disease.</t>
+  </si>
+  <si>
+    <t>Neighbouring kingdoms have reported a new disease that is making its townsfolk sick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,30 +513,30 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{55E8A408-51B7-403A-B86C-D345A9B9951F}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -846,50 +840,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA58C0E2-7DF5-496F-9DA8-441177FE0A8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13"/>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="13"/>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="13"/>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="13"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="13"/>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -928,12 +922,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>18</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -947,12 +941,12 @@
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
+      <c r="B4" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -966,53 +960,53 @@
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="262.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="285.3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="E5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="H5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="K5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>34</v>
+      <c r="B6" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1026,12 +1020,12 @@
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1045,53 +1039,53 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="220.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="220.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1105,53 +1099,53 @@
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1165,53 +1159,53 @@
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="248.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1225,53 +1219,53 @@
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="256.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>100</v>
+        <v>56</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1285,11 +1279,11 @@
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="72.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="12"/>
@@ -1304,11 +1298,11 @@
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="72.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C17" s="12"/>
@@ -1323,11 +1317,11 @@
       <c r="L17" s="12"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="72.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="12"/>
@@ -1342,12 +1336,12 @@
       <c r="L18" s="12"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="72.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>

--- a/Stories/Plague.xlsx
+++ b/Stories/Plague.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939D83F-0538-48FF-A082-066072BB1EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23257" windowHeight="12580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -317,28 +315,28 @@
     <t>The neighbouring kingdoms may think we are taking lightly of the disease.</t>
   </si>
   <si>
-    <t>You have received news that the disease has sweeped through all neighbouring kingdoms and the situation has gotten severe.</t>
-  </si>
-  <si>
-    <t>Thankfully, the strict border restrictions meant that you were able to control the flow of people entering your kingdom, minimising any risk of potential foreign infection. The stock on the medicine also meant that your kingdom is able to cope should an outbreak occur.</t>
-  </si>
-  <si>
     <t>Although this had helped to reduce the number of infected people, such actions were viewed to be treacherous by the neighbouring kingdoms, ultimately angering them.</t>
   </si>
   <si>
-    <t>The decision to cut off interactions with neighbouring kingdoms meant that you removed the risk of any infected people from the neighbouring kingdoms entering your own. However, this came at a cost to your kingdom's trade and relationship ties with the neighbouring kingdoms.</t>
-  </si>
-  <si>
     <t>Letting your guard down was not the best as you unknowningly let infected people from the neighbouring kingdoms enter your own and allowed for spreading of the disease.</t>
   </si>
   <si>
     <t>Neighbouring kingdoms have reported a new disease that is making its townsfolk sick</t>
+  </si>
+  <si>
+    <t>You have received additional news that the disease has sweeped through all neighbouring kingdoms and the situation has gotten severe.</t>
+  </si>
+  <si>
+    <t>Thankfully, the strict border restrictions helped to manage the people entering your kingdom, minimising any risk of potential foreign infection. The additional medicine stock also meant that your kingdom is able to cope should an outbreak occur.</t>
+  </si>
+  <si>
+    <t>Cutting off interactions with neighbouring kingdoms aided in reducing the risk of any infected people from the neighbouring kingdoms entering your own. However, this came at a cost to your kingdom's trade and relationship ties with them.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,11 +511,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -528,15 +529,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -840,50 +838,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="13"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="13"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="13"/>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="13"/>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:13" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -922,12 +920,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>101</v>
+      <c r="B3" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -941,11 +939,11 @@
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="12"/>
@@ -960,7 +958,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="285.3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="262.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1001,11 +999,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="12"/>
@@ -1020,11 +1018,11 @@
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="12"/>
@@ -1039,7 +1037,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="220.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="220.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1080,11 +1078,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="12"/>
@@ -1099,7 +1097,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="165.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1140,11 +1138,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="12"/>
@@ -1159,7 +1157,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" ht="248.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="248.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1200,11 +1198,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="27.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="12"/>
@@ -1219,7 +1217,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" ht="256.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1260,12 +1258,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>96</v>
+      <c r="B15" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1279,12 +1277,12 @@
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:13" ht="72.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>97</v>
+      <c r="B16" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1298,12 +1296,12 @@
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:13" ht="72.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>98</v>
+      <c r="B17" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1317,12 +1315,12 @@
       <c r="L17" s="12"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" ht="72.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>99</v>
+      <c r="B18" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1336,12 +1334,12 @@
       <c r="L18" s="12"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="72.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>100</v>
+      <c r="B19" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1357,11 +1355,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B1:C1"/>
@@ -1375,6 +1368,11 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/Plague.xlsx
+++ b/Stories/Plague.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Related\DECO3801\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939D83F-0538-48FF-A082-066072BB1EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C384EF-377D-430A-9DCF-1CEA7F02B51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,24 +84,9 @@
     <t>ADVISOR OPINION</t>
   </si>
   <si>
-    <t>If we're lucky the sickness will wipe our enemies and allow us to increase our lands.</t>
-  </si>
-  <si>
-    <t>I haven't seen any proof this disease exists, and I think we have the best scientists.</t>
-  </si>
-  <si>
-    <t>Based on the crop yield, the kingdom needs all its farmers working if we are to get through the winter.</t>
-  </si>
-  <si>
     <t>I don’t have time for rumours.</t>
   </si>
   <si>
-    <t xml:space="preserve">The people may have a tough time ahead doing trading if the neighbouring Kingdoms are closing their border. </t>
-  </si>
-  <si>
-    <t>There is not much information regarding to this disease. I need more time to investigate into it.</t>
-  </si>
-  <si>
     <t>OUTCOME</t>
   </si>
   <si>
@@ -111,18 +96,9 @@
     <t>The troops are ready to defend us.</t>
   </si>
   <si>
-    <t>Our preliminary research shows we this will not resolve the outbreak, but will slow it down and save lives</t>
-  </si>
-  <si>
     <t>We must work on a cure at once and shut ourselves off completely if we are to remain safe.</t>
   </si>
   <si>
-    <t>The villagers surveyed said their priority is to keep the crops healthy and family safe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Kingdom could earn a great fortune if we distribute the medicine to the neighbouring Kingdoms. </t>
-  </si>
-  <si>
     <t>We may not have sufficient raw materials and ingredients for producing the medicine.</t>
   </si>
   <si>
@@ -141,9 +117,6 @@
     <t>They are only villagers, they will not be missed.</t>
   </si>
   <si>
-    <t>We should take all of their food as well, they don't need it.</t>
-  </si>
-  <si>
     <t>We must help them. What if they were our villagers?</t>
   </si>
   <si>
@@ -168,21 +141,12 @@
     <t>This is the only safe choice. We are in danger!</t>
   </si>
   <si>
-    <t>I need to be able to trade, otherwise how will I be able to afford the expansion on my home.</t>
-  </si>
-  <si>
     <t>I will miss my weekly meeting with the Agricultural society.</t>
   </si>
   <si>
     <t>We may suffer trading losses by closing our ports.</t>
   </si>
   <si>
-    <t>We should propose a plan to tackle such situation before making rash decision.</t>
-  </si>
-  <si>
-    <t>This means that we are cutting off all the help we can get if we need to request aid in the future.</t>
-  </si>
-  <si>
     <t>ACTION 4</t>
   </si>
   <si>
@@ -210,36 +174,15 @@
     <t>ACTION 4 EVENT SUMMARY</t>
   </si>
   <si>
-    <t>Urgent news was received by raven earlier today, by our herald spying in a nearby kingdom, of a disease that has never been seen before. This comes just a day after a report from another neighbouring kingdom of the same mysterious symptoms. At this time there have been no reports of a cure.</t>
-  </si>
-  <si>
-    <t>The previous general warned that any news of disease can be detrimental to our kingdoms military forces and should be taken seriously.</t>
-  </si>
-  <si>
     <t>The spymasters in other kingdoms have seen the damage firsthand and we must act quickly.</t>
   </si>
   <si>
-    <t>The kingdom should reserve all its liquid assets to prepare for the worst.</t>
-  </si>
-  <si>
-    <t>We could dispatch our scientists disguising as a medical team to better assess the disease closer in the affected Kingdoms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This could be a great opportunity to expand our allied kingdoms and influences over other kingdoms. </t>
-  </si>
-  <si>
     <t>I believe this could be a time that the neighbouring kingdoms would request for our aid.</t>
   </si>
   <si>
-    <t>You investigate further and the reports from neighbouring countries are true. The disease spreads rapidly, with a low infection to fatality rate and those most at risk are the elderly.</t>
-  </si>
-  <si>
     <t>Enact strict border restrictions and increase the availability of medicine.</t>
   </si>
   <si>
-    <t>It will be a difficult but reports from other kingdoms taking this approach show we can minimize the damage.</t>
-  </si>
-  <si>
     <t>This will raise taxes quite a bit.</t>
   </si>
   <si>
@@ -249,33 +192,18 @@
     <t>We could approach the Cathay region to see if there are any leads to the cure for this disease.</t>
   </si>
   <si>
-    <t>The people of the neighbouring countries may seek asylum in our kingdom.</t>
-  </si>
-  <si>
     <t>We may need to assist our allied kingdoms based on the treaty agreements.</t>
   </si>
   <si>
     <t>Purge sick villagers in the neighbouring kingdoms.</t>
   </si>
   <si>
-    <t>This could be a trap to frame our kingdom as a murderer.</t>
-  </si>
-  <si>
     <t>What if the neighbouring kingdoms know that we are publicly executing their people?</t>
   </si>
   <si>
     <t>Cut off all interaction with other kingdoms.</t>
   </si>
   <si>
-    <t>The other kingdoms will not be a risk for attack if they are suffering but we will need to keep the soldiers busy</t>
-  </si>
-  <si>
-    <t>Calculations show this will greatly reduce our commerce and export value. We rely on other kingdoms for our kingdom to prosper.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This may leads to economic sanctions that weaken our financial power.  </t>
-  </si>
-  <si>
     <t>We may be isolated by other kingdoms in the future for being a coward.</t>
   </si>
   <si>
@@ -291,9 +219,6 @@
     <t>We can wait and see how badly the other kingdoms fare before scouting their lands.</t>
   </si>
   <si>
-    <t>Generations ago we have had similar stories of large death tolls.</t>
-  </si>
-  <si>
     <t>History shows we will pay the price if we do nothing.</t>
   </si>
   <si>
@@ -309,28 +234,103 @@
     <t>I must assess the neighbouring kingdoms first before putting our people at risk!</t>
   </si>
   <si>
-    <t>The King's reputation would be tainted if our people are found to be spreading the diseases in other kingdoms.</t>
-  </si>
-  <si>
-    <t>The neighbouring kingdoms may think we are taking lightly of the disease.</t>
-  </si>
-  <si>
     <t>Although this had helped to reduce the number of infected people, such actions were viewed to be treacherous by the neighbouring kingdoms, ultimately angering them.</t>
   </si>
   <si>
     <t>Letting your guard down was not the best as you unknowningly let infected people from the neighbouring kingdoms enter your own and allowed for spreading of the disease.</t>
   </si>
   <si>
-    <t>Neighbouring kingdoms have reported a new disease that is making its townsfolk sick</t>
-  </si>
-  <si>
-    <t>You have received additional news that the disease has sweeped through all neighbouring kingdoms and the situation has gotten severe.</t>
-  </si>
-  <si>
-    <t>Thankfully, the strict border restrictions helped to manage the people entering your kingdom, minimising any risk of potential foreign infection. The additional medicine stock also meant that your kingdom is able to cope should an outbreak occur.</t>
-  </si>
-  <si>
-    <t>Cutting off interactions with neighbouring kingdoms aided in reducing the risk of any infected people from the neighbouring kingdoms entering your own. However, this came at a cost to your kingdom's trade and relationship ties with them.</t>
+    <t>Neighbouring kingdoms have reported a new disease that is making its townsfolk sick.</t>
+  </si>
+  <si>
+    <t>Urgent news was received by raven earlier today, from our herald spying in a nearby kingdom, of a disease that has never been seen before. This comes just a day after a report from another neighbouring kingdom of the same mysterious symptoms. At this time there have been no reports of a cure.</t>
+  </si>
+  <si>
+    <t>The previous general warned that any news of disease could be detrimental to our Kingdom's military forces and should be taken seriously.</t>
+  </si>
+  <si>
+    <t>If we're lucky the sickness will wipe out our enemies and allow us to increase our lands.</t>
+  </si>
+  <si>
+    <t>I haven't seen any proof that this disease exists, and I think we have the best scientists.</t>
+  </si>
+  <si>
+    <t>Based on the crop yield, the Kingdom needs all its farmers working if we are to get through the winter.</t>
+  </si>
+  <si>
+    <t>The Kingdom should reserve all its liquid assets to prepare for the worst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people may have a tough time ahead with trading if the neighbouring kingdoms are closing their borders. </t>
+  </si>
+  <si>
+    <t>There is not much information regarding this disease. I need more time to investigate it.</t>
+  </si>
+  <si>
+    <t>We could dispatch our scientists disguised as a medical team to better assess the disease from closer in the affected kingdoms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This could be a great opportunity to increase our allies and influence over other kingdoms. </t>
+  </si>
+  <si>
+    <t>You investigate further and the reports from neighbouring kingdoms are true. The disease spreads rapidly, with a low infection to fatality rate and those most at risk are the elderly.</t>
+  </si>
+  <si>
+    <t>It will be a difficult but reports from other kingdoms taking this approach show we can minimise the damage this way.</t>
+  </si>
+  <si>
+    <t>Our preliminary research shows that this will not resolve the outbreak, but will slow it down and save lives.</t>
+  </si>
+  <si>
+    <t>The villagers surveyed said their priority is to keep the crops healthy and family safe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kingdom could earn a great fortune if we distribute the medicine to the neighbouring kingdoms. </t>
+  </si>
+  <si>
+    <t>The people of the neighbouring kingdoms may seek asylum in our Kingdom.</t>
+  </si>
+  <si>
+    <t>We should take all of their food as well, they won't be needing it.</t>
+  </si>
+  <si>
+    <t>This could be a trap to frame our Kingdom as a murderer.</t>
+  </si>
+  <si>
+    <t>The other kingdoms will not be a risk for attack if they are suffering but we will need to keep the soldiers busy.</t>
+  </si>
+  <si>
+    <t>Calculations show this will greatly reduce our commerce and export value. We rely on other kingdoms for our Kingdom to prosper.</t>
+  </si>
+  <si>
+    <t>I need to be able to trade, otherwise how will I be able to afford the expansion on my home?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This may lead to economic sanctions that weaken our financial power.  </t>
+  </si>
+  <si>
+    <t>We should propose a plan to tackle such a situation before making a rash decision.</t>
+  </si>
+  <si>
+    <t>This means that we are cutting off all the help we could get if we need to request aid in the future.</t>
+  </si>
+  <si>
+    <t>Generations ago we had similar stories of large death tolls.</t>
+  </si>
+  <si>
+    <t>The King's reputation would be tainted if our people are found to be spreading the disease in other kingdoms.</t>
+  </si>
+  <si>
+    <t>The neighbouring kingdoms may think we are taking the disease lightly.</t>
+  </si>
+  <si>
+    <t>You have received additional news that the disease has swept through all neighbouring kingdoms and the situation has gotten severe.</t>
+  </si>
+  <si>
+    <t>Thankfully, the strict border restrictions helped to manage the people entering your Kingdom, minimising any risk of potential foreign infection. The additional medicine stock also means that your Kingdom is able to cope should an outbreak occur.</t>
+  </si>
+  <si>
+    <t>Cutting off interactions with neighbouring kingdoms aided in reducing the risk of any infected people from the neighbouring kingdoms entering your own. However, this came at a cost to your Kingdom's trade and relationship ties with them.</t>
   </si>
 </sst>
 </file>
@@ -511,14 +511,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -529,6 +526,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -849,34 +849,34 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="13"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="13"/>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="13"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="13"/>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="13"/>
@@ -922,10 +922,10 @@
     </row>
     <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>98</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -943,8 +943,8 @@
       <c r="A4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>61</v>
+      <c r="B4" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -958,53 +958,53 @@
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="262.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="276" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>69</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1042,48 +1042,48 @@
         <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1102,48 +1102,48 @@
         <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>79</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1162,48 +1162,48 @@
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>85</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1222,47 +1222,47 @@
         <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="12"/>
@@ -1279,9 +1279,9 @@
     </row>
     <row r="16" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="12"/>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="17" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>96</v>
+        <v>46</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1317,9 +1317,9 @@
     </row>
     <row r="18" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="12"/>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="19" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>97</v>
+        <v>48</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1355,6 +1355,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
     <mergeCell ref="B11:M11"/>
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B1:C1"/>
@@ -1368,11 +1373,6 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stories/Plague.xlsx
+++ b/Stories/Plague.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\DECO3801-Synergistics\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C384EF-377D-430A-9DCF-1CEA7F02B51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F65BF-E896-445A-A977-E5BCF9FE34B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>We must work on a cure at once and shut ourselves off completely if we are to remain safe.</t>
   </si>
   <si>
-    <t>We may not have sufficient raw materials and ingredients for producing the medicine.</t>
-  </si>
-  <si>
     <t>ACTION 2</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>This is the only safe choice. We are in danger!</t>
   </si>
   <si>
-    <t>I will miss my weekly meeting with the Agricultural society.</t>
-  </si>
-  <si>
     <t>We may suffer trading losses by closing our ports.</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>This will raise taxes quite a bit.</t>
   </si>
   <si>
-    <t>The Kingdom should subsidise the price of the medicine to avoid panic buying.</t>
-  </si>
-  <si>
     <t>We could approach the Cathay region to see if there are any leads to the cure for this disease.</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>Although this had helped to reduce the number of infected people, such actions were viewed to be treacherous by the neighbouring kingdoms, ultimately angering them.</t>
   </si>
   <si>
-    <t>Letting your guard down was not the best as you unknowningly let infected people from the neighbouring kingdoms enter your own and allowed for spreading of the disease.</t>
-  </si>
-  <si>
     <t>Neighbouring kingdoms have reported a new disease that is making its townsfolk sick.</t>
   </si>
   <si>
@@ -249,9 +237,6 @@
     <t>The previous general warned that any news of disease could be detrimental to our Kingdom's military forces and should be taken seriously.</t>
   </si>
   <si>
-    <t>If we're lucky the sickness will wipe out our enemies and allow us to increase our lands.</t>
-  </si>
-  <si>
     <t>I haven't seen any proof that this disease exists, and I think we have the best scientists.</t>
   </si>
   <si>
@@ -276,18 +261,9 @@
     <t>You investigate further and the reports from neighbouring kingdoms are true. The disease spreads rapidly, with a low infection to fatality rate and those most at risk are the elderly.</t>
   </si>
   <si>
-    <t>It will be a difficult but reports from other kingdoms taking this approach show we can minimise the damage this way.</t>
-  </si>
-  <si>
     <t>Our preliminary research shows that this will not resolve the outbreak, but will slow it down and save lives.</t>
   </si>
   <si>
-    <t>The villagers surveyed said their priority is to keep the crops healthy and family safe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Kingdom could earn a great fortune if we distribute the medicine to the neighbouring kingdoms. </t>
-  </si>
-  <si>
     <t>The people of the neighbouring kingdoms may seek asylum in our Kingdom.</t>
   </si>
   <si>
@@ -297,12 +273,6 @@
     <t>This could be a trap to frame our Kingdom as a murderer.</t>
   </si>
   <si>
-    <t>The other kingdoms will not be a risk for attack if they are suffering but we will need to keep the soldiers busy.</t>
-  </si>
-  <si>
-    <t>Calculations show this will greatly reduce our commerce and export value. We rely on other kingdoms for our Kingdom to prosper.</t>
-  </si>
-  <si>
     <t>I need to be able to trade, otherwise how will I be able to afford the expansion on my home?</t>
   </si>
   <si>
@@ -321,16 +291,46 @@
     <t>The King's reputation would be tainted if our people are found to be spreading the disease in other kingdoms.</t>
   </si>
   <si>
-    <t>The neighbouring kingdoms may think we are taking the disease lightly.</t>
-  </si>
-  <si>
-    <t>You have received additional news that the disease has swept through all neighbouring kingdoms and the situation has gotten severe.</t>
-  </si>
-  <si>
     <t>Thankfully, the strict border restrictions helped to manage the people entering your Kingdom, minimising any risk of potential foreign infection. The additional medicine stock also means that your Kingdom is able to cope should an outbreak occur.</t>
   </si>
   <si>
-    <t>Cutting off interactions with neighbouring kingdoms aided in reducing the risk of any infected people from the neighbouring kingdoms entering your own. However, this came at a cost to your Kingdom's trade and relationship ties with them.</t>
+    <t>Letting your guard down was not the best as you unknowingly let infected people from the neighbouring kingdoms enter your own and allowed for spreading of the disease.</t>
+  </si>
+  <si>
+    <t>Cutting off interactions with neighbouring kingdoms aided in reducing the risk of any infected people from the neighbouring kingdoms entering your own. However, this came at a cost to your Kingdom's diplomatic and trade relationships with them.</t>
+  </si>
+  <si>
+    <t>You have received additional news that the disease has swept through all neighbouring kingdoms and that the situation has become very severe.</t>
+  </si>
+  <si>
+    <t>The neighbouring kingdoms may think we aren't taking the disease seriously.</t>
+  </si>
+  <si>
+    <t>There will not be a risk of attack from other kingdoms if they are suffering but we will need to keep the soldiers busy.</t>
+  </si>
+  <si>
+    <t>Calculations show this will greatly reduce our commerce and export value. We rely on other kingdoms for our own to prosper.</t>
+  </si>
+  <si>
+    <t>I will miss my weekly meeting with the agricultural society.</t>
+  </si>
+  <si>
+    <t>It will be difficult but reports from other kingdoms taking this approach show that we can minimise the damage this way.</t>
+  </si>
+  <si>
+    <t>The villagers surveyed said their priority is to keep the crops healthy and their family safe.</t>
+  </si>
+  <si>
+    <t>We may not have sufficient raw materials and ingredients for producing medicine.</t>
+  </si>
+  <si>
+    <t>The Kingdom should subsidise the price of medicine to avoid panic buying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kingdom could earn a great fortune if we distribute medicine to the neighbouring kingdoms. </t>
+  </si>
+  <si>
+    <t>If we're lucky the sickness will wipe out our enemies and allow us to increase our territory.</t>
   </si>
 </sst>
 </file>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,10 +922,10 @@
     </row>
     <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -963,40 +963,40 @@
         <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1004,7 +1004,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1023,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1042,48 +1042,48 @@
         <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1102,48 +1102,48 @@
         <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1162,48 +1162,48 @@
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="J12" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1222,48 +1222,48 @@
         <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="I14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="K14" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="16" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="17" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="18" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="19" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
